--- a/history/input/~F23CourseReviews.xlsx
+++ b/history/input/~F23CourseReviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Dropbox\Hopkins\Misc\2024.03.18 F23 Course Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9EF01E-7FCF-496F-A82C-7B3B7A17BA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB28521-FE55-4B81-A484-C38922B07AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17681E57-9311-4AF4-8309-8F6EFAD10678}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="678">
   <si>
     <t>Term</t>
   </si>
@@ -2014,21 +2014,6 @@
   </si>
   <si>
     <t>Torres Burgos, Carmen</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Franzini, Martina</t>
@@ -2452,15 +2437,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E877A1-4511-415A-81C8-2EC555BDD90B}">
   <dimension ref="A1:AL376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -12494,6 +12479,9 @@
       </c>
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B149" s="1" t="s">
         <v>284</v>
       </c>
@@ -12732,6 +12720,9 @@
       </c>
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B151" s="1" t="s">
         <v>284</v>
       </c>
@@ -12970,6 +12961,9 @@
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B153" s="1" t="s">
         <v>284</v>
       </c>
@@ -13351,6 +13345,9 @@
       </c>
     </row>
     <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B157" s="1" t="s">
         <v>284</v>
       </c>
@@ -13364,7 +13361,7 @@
         <v>301</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>14</v>
@@ -20100,6 +20097,9 @@
       </c>
     </row>
     <row r="221" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B221" s="1" t="s">
         <v>396</v>
       </c>
@@ -20113,7 +20113,7 @@
         <v>401</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>14</v>
@@ -20378,6 +20378,9 @@
       </c>
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B224" s="1" t="s">
         <v>396</v>
       </c>
@@ -20391,7 +20394,7 @@
         <v>401</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>14</v>
@@ -20617,6 +20620,9 @@
       </c>
     </row>
     <row r="226" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B226" s="1" t="s">
         <v>396</v>
       </c>
@@ -20630,7 +20636,7 @@
         <v>401</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>14</v>
@@ -20855,6 +20861,9 @@
       </c>
     </row>
     <row r="228" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B228" s="1" t="s">
         <v>396</v>
       </c>
@@ -20868,7 +20877,7 @@
         <v>401</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>14</v>
@@ -22653,7 +22662,7 @@
         <v>455</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>14</v>
@@ -22772,7 +22781,7 @@
         <v>455</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>14</v>
@@ -22889,7 +22898,7 @@
         <v>455</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>14</v>
@@ -23072,7 +23081,7 @@
         <v>455</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>14</v>
@@ -23189,7 +23198,7 @@
         <v>455</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>14</v>
@@ -23436,7 +23445,7 @@
         <v>455</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>14</v>
@@ -23555,7 +23564,7 @@
         <v>455</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>14</v>
@@ -23778,7 +23787,7 @@
         <v>455</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>14</v>
@@ -25748,7 +25757,7 @@
         <v>491</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>14</v>
@@ -26105,7 +26114,7 @@
         <v>491</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>14</v>
@@ -26464,7 +26473,7 @@
         <v>491</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>14</v>
@@ -28020,7 +28029,7 @@
         <v>491</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>14</v>
@@ -28144,7 +28153,7 @@
         <v>491</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>14</v>
@@ -28261,7 +28270,7 @@
         <v>491</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>14</v>
@@ -29221,7 +29230,7 @@
         <v>519</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>14</v>
@@ -29809,7 +29818,7 @@
         <v>526</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>14</v>
@@ -31081,7 +31090,7 @@
         <v>553</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>14</v>
@@ -32726,7 +32735,7 @@
         <v>582</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G341" s="1" t="s">
         <v>14</v>
@@ -33793,6 +33802,9 @@
       </c>
     </row>
     <row r="350" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B350" s="1" t="s">
         <v>568</v>
       </c>
@@ -33806,7 +33818,7 @@
         <v>591</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G350" s="1" t="s">
         <v>14</v>
@@ -34032,6 +34044,9 @@
       </c>
     </row>
     <row r="352" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B352" s="1" t="s">
         <v>568</v>
       </c>
@@ -34045,7 +34060,7 @@
         <v>591</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>14</v>
@@ -34525,6 +34540,9 @@
       </c>
     </row>
     <row r="359" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B359" s="1" t="s">
         <v>596</v>
       </c>
@@ -34645,6 +34663,9 @@
       </c>
     </row>
     <row r="360" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B360" s="1" t="s">
         <v>596</v>
       </c>
@@ -34658,7 +34679,7 @@
         <v>604</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G360" s="1" t="s">
         <v>14</v>
@@ -34798,6 +34819,9 @@
       </c>
     </row>
     <row r="362" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B362" s="1" t="s">
         <v>596</v>
       </c>
@@ -34919,6 +34943,9 @@
       </c>
     </row>
     <row r="363" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B363" s="1" t="s">
         <v>596</v>
       </c>
@@ -35056,7 +35083,7 @@
         <v>604</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G364" s="1" t="s">
         <v>14</v>
@@ -35288,6 +35315,9 @@
       </c>
     </row>
     <row r="366" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B366" s="1" t="s">
         <v>596</v>
       </c>
